--- a/data_year/zb/文化/群众文化机构基本情况/县文化馆.xlsx
+++ b/data_year/zb/文化/群众文化机构基本情况/县文化馆.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,571 +528,587 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8938</v>
+        <v>8425</v>
       </c>
       <c r="C2" t="n">
-        <v>26520</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>24667</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21338</v>
+      </c>
       <c r="E2" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>2166</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31751</v>
+      </c>
       <c r="G2" t="n">
-        <v>301</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>417</v>
+      </c>
+      <c r="H2" t="n">
+        <v>136.8</v>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4459</v>
+        <v>5433</v>
       </c>
       <c r="M2" t="n">
-        <v>128278.6</v>
+        <v>118000</v>
       </c>
       <c r="N2" t="n">
-        <v>13.26226</v>
+        <v>12.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1743</v>
+        <v>1666</v>
       </c>
       <c r="P2" t="n">
-        <v>3727</v>
+        <v>4696</v>
       </c>
       <c r="Q2" t="n">
-        <v>50043</v>
+        <v>52583</v>
       </c>
       <c r="R2" t="n">
-        <v>32314</v>
+        <v>33907</v>
       </c>
       <c r="S2" t="n">
-        <v>223.4</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8495</v>
+        <v>8658</v>
       </c>
       <c r="C3" t="n">
-        <v>20082</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>27378</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21589</v>
+      </c>
       <c r="E3" t="n">
-        <v>1917</v>
+        <v>3276</v>
       </c>
       <c r="F3" t="n">
-        <v>31289</v>
+        <v>46484</v>
       </c>
       <c r="G3" t="n">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="H3" t="n">
-        <v>109.393</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>197.64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4799</v>
+      </c>
+      <c r="J3" t="n">
+        <v>113.29</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1321.84</v>
+      </c>
       <c r="L3" t="n">
-        <v>4503</v>
+        <v>8410</v>
       </c>
       <c r="M3" t="n">
-        <v>101800</v>
+        <v>153344.7</v>
       </c>
       <c r="N3" t="n">
-        <v>10.33</v>
+        <v>15.92222</v>
       </c>
       <c r="O3" t="n">
-        <v>1643</v>
+        <v>1669</v>
       </c>
       <c r="P3" t="n">
-        <v>3995</v>
+        <v>5639</v>
       </c>
       <c r="Q3" t="n">
-        <v>49983</v>
+        <v>58519</v>
       </c>
       <c r="R3" t="n">
-        <v>27794</v>
+        <v>23351</v>
       </c>
       <c r="S3" t="n">
-        <v>153.876</v>
+        <v>165.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8425</v>
+        <v>9625</v>
       </c>
       <c r="C4" t="n">
-        <v>24667</v>
+        <v>30783</v>
       </c>
       <c r="D4" t="n">
-        <v>21338</v>
+        <v>22606</v>
       </c>
       <c r="E4" t="n">
-        <v>2166</v>
+        <v>3247</v>
       </c>
       <c r="F4" t="n">
-        <v>31751</v>
+        <v>51882</v>
       </c>
       <c r="G4" t="n">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="H4" t="n">
-        <v>136.8</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>253.52</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5412.19</v>
+      </c>
+      <c r="J4" t="n">
+        <v>134.77</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1684.59</v>
+      </c>
       <c r="L4" t="n">
-        <v>5433</v>
+        <v>10920</v>
       </c>
       <c r="M4" t="n">
-        <v>118000</v>
+        <v>190859.8</v>
       </c>
       <c r="N4" t="n">
-        <v>12.3</v>
+        <v>19.63896</v>
       </c>
       <c r="O4" t="n">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="P4" t="n">
-        <v>4696</v>
+        <v>7320</v>
       </c>
       <c r="Q4" t="n">
-        <v>52583</v>
+        <v>62690</v>
       </c>
       <c r="R4" t="n">
-        <v>33907</v>
+        <v>24856</v>
       </c>
       <c r="S4" t="n">
-        <v>159.5</v>
+        <v>198.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8658</v>
+        <v>9962</v>
       </c>
       <c r="C5" t="n">
-        <v>27378</v>
+        <v>31090</v>
       </c>
       <c r="D5" t="n">
-        <v>21589</v>
+        <v>23534</v>
       </c>
       <c r="E5" t="n">
-        <v>3276</v>
+        <v>2397</v>
       </c>
       <c r="F5" t="n">
-        <v>46484</v>
+        <v>56954</v>
       </c>
       <c r="G5" t="n">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="H5" t="n">
-        <v>197.64</v>
+        <v>249</v>
       </c>
       <c r="I5" t="n">
-        <v>4799</v>
-      </c>
-      <c r="J5" t="n">
-        <v>113.29</v>
-      </c>
+        <v>6009</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1321.84</v>
+        <v>5093</v>
       </c>
       <c r="L5" t="n">
-        <v>8410</v>
+        <v>13062</v>
       </c>
       <c r="M5" t="n">
-        <v>153344.7</v>
+        <v>234900</v>
       </c>
       <c r="N5" t="n">
-        <v>15.92222</v>
+        <v>23.77</v>
       </c>
       <c r="O5" t="n">
-        <v>1669</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5639</v>
-      </c>
+        <v>1671</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>58519</v>
+        <v>66732</v>
       </c>
       <c r="R5" t="n">
-        <v>23351</v>
+        <v>26992</v>
       </c>
       <c r="S5" t="n">
-        <v>165.93</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9625</v>
+        <v>10980</v>
       </c>
       <c r="C6" t="n">
-        <v>30783</v>
+        <v>36875</v>
       </c>
       <c r="D6" t="n">
-        <v>22606</v>
+        <v>23479</v>
       </c>
       <c r="E6" t="n">
-        <v>3247</v>
+        <v>2500</v>
       </c>
       <c r="F6" t="n">
-        <v>51882</v>
+        <v>70377</v>
       </c>
       <c r="G6" t="n">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H6" t="n">
-        <v>253.52</v>
+        <v>293.081</v>
       </c>
       <c r="I6" t="n">
-        <v>5412.19</v>
+        <v>5793.673</v>
       </c>
       <c r="J6" t="n">
-        <v>134.77</v>
+        <v>145.3</v>
       </c>
       <c r="K6" t="n">
-        <v>1684.59</v>
+        <v>1659.254</v>
       </c>
       <c r="L6" t="n">
-        <v>10920</v>
+        <v>16163</v>
       </c>
       <c r="M6" t="n">
-        <v>190859.8</v>
+        <v>236260.1</v>
       </c>
       <c r="N6" t="n">
-        <v>19.63896</v>
+        <v>24.16937</v>
       </c>
       <c r="O6" t="n">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="P6" t="n">
-        <v>7320</v>
+        <v>7991</v>
       </c>
       <c r="Q6" t="n">
-        <v>62690</v>
+        <v>130687</v>
       </c>
       <c r="R6" t="n">
-        <v>24856</v>
+        <v>31749</v>
       </c>
       <c r="S6" t="n">
-        <v>198.25</v>
+        <v>232.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9962</v>
+        <v>14300</v>
       </c>
       <c r="C7" t="n">
-        <v>31090</v>
+        <v>57700</v>
       </c>
       <c r="D7" t="n">
-        <v>23534</v>
+        <v>30264</v>
       </c>
       <c r="E7" t="n">
-        <v>2397</v>
+        <v>3891</v>
       </c>
       <c r="F7" t="n">
-        <v>56954</v>
+        <v>97300</v>
       </c>
       <c r="G7" t="n">
-        <v>333</v>
+        <v>516</v>
       </c>
       <c r="H7" t="n">
-        <v>249</v>
+        <v>411.925</v>
       </c>
       <c r="I7" t="n">
-        <v>6009</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>9354.588</v>
+      </c>
+      <c r="J7" t="n">
+        <v>216.464</v>
+      </c>
       <c r="K7" t="n">
-        <v>5093</v>
+        <v>2271.167</v>
       </c>
       <c r="L7" t="n">
-        <v>13062</v>
+        <v>26400</v>
       </c>
       <c r="M7" t="n">
-        <v>234900</v>
+        <v>382080.3</v>
       </c>
       <c r="N7" t="n">
-        <v>23.77</v>
+        <v>39.11344</v>
       </c>
       <c r="O7" t="n">
-        <v>1671</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+        <v>2037</v>
+      </c>
+      <c r="P7" t="n">
+        <v>11239</v>
+      </c>
       <c r="Q7" t="n">
-        <v>66732</v>
+        <v>109500</v>
       </c>
       <c r="R7" t="n">
-        <v>26992</v>
+        <v>45100</v>
       </c>
       <c r="S7" t="n">
-        <v>203</v>
+        <v>308.162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10980</v>
+        <v>11569</v>
       </c>
       <c r="C8" t="n">
-        <v>36875</v>
+        <v>42992</v>
       </c>
       <c r="D8" t="n">
-        <v>23479</v>
+        <v>22766</v>
       </c>
       <c r="E8" t="n">
-        <v>2500</v>
+        <v>2949</v>
       </c>
       <c r="F8" t="n">
-        <v>70377</v>
+        <v>74219</v>
       </c>
       <c r="G8" t="n">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="H8" t="n">
-        <v>293.081</v>
+        <v>305.308</v>
       </c>
       <c r="I8" t="n">
-        <v>5793.673</v>
+        <v>7971.958</v>
       </c>
       <c r="J8" t="n">
-        <v>145.3</v>
+        <v>165.865</v>
       </c>
       <c r="K8" t="n">
-        <v>1659.254</v>
+        <v>1781.713</v>
       </c>
       <c r="L8" t="n">
-        <v>16163</v>
+        <v>22651</v>
       </c>
       <c r="M8" t="n">
-        <v>236260.1</v>
+        <v>300552.3</v>
       </c>
       <c r="N8" t="n">
-        <v>24.16937</v>
+        <v>31.22608</v>
       </c>
       <c r="O8" t="n">
-        <v>1666</v>
+        <v>1630</v>
       </c>
       <c r="P8" t="n">
-        <v>7991</v>
+        <v>9225</v>
       </c>
       <c r="Q8" t="n">
-        <v>130687</v>
+        <v>88977</v>
       </c>
       <c r="R8" t="n">
-        <v>31749</v>
+        <v>34463</v>
       </c>
       <c r="S8" t="n">
-        <v>232.92</v>
+        <v>256.992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14300</v>
+        <v>11000</v>
       </c>
       <c r="C9" t="n">
-        <v>57700</v>
+        <v>46000</v>
       </c>
       <c r="D9" t="n">
-        <v>30264</v>
+        <v>22278</v>
       </c>
       <c r="E9" t="n">
-        <v>3891</v>
+        <v>3069</v>
       </c>
       <c r="F9" t="n">
-        <v>97300</v>
+        <v>80000</v>
       </c>
       <c r="G9" t="n">
-        <v>516</v>
+        <v>407</v>
       </c>
       <c r="H9" t="n">
-        <v>411.925</v>
+        <v>344.059</v>
       </c>
       <c r="I9" t="n">
-        <v>9354.588</v>
-      </c>
-      <c r="J9" t="n">
-        <v>216.464</v>
-      </c>
+        <v>8543.313</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>2271.167</v>
+        <v>1672.68</v>
       </c>
       <c r="L9" t="n">
-        <v>26400</v>
+        <v>72000</v>
       </c>
       <c r="M9" t="n">
-        <v>382080.3</v>
+        <v>322152.1</v>
       </c>
       <c r="N9" t="n">
-        <v>39.11344</v>
+        <v>32.77819</v>
       </c>
       <c r="O9" t="n">
-        <v>2037</v>
-      </c>
-      <c r="P9" t="n">
-        <v>11239</v>
-      </c>
+        <v>1615</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>109500</v>
+        <v>98000</v>
       </c>
       <c r="R9" t="n">
-        <v>45100</v>
-      </c>
-      <c r="S9" t="n">
-        <v>308.162</v>
-      </c>
+        <v>37000</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11569</v>
+        <v>12000</v>
       </c>
       <c r="C10" t="n">
-        <v>42992</v>
+        <v>63000</v>
       </c>
       <c r="D10" t="n">
-        <v>22766</v>
+        <v>22018</v>
       </c>
       <c r="E10" t="n">
-        <v>2949</v>
+        <v>3090</v>
       </c>
       <c r="F10" t="n">
-        <v>74219</v>
+        <v>75000</v>
       </c>
       <c r="G10" t="n">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="H10" t="n">
-        <v>305.308</v>
+        <v>416</v>
       </c>
       <c r="I10" t="n">
-        <v>7971.958</v>
+        <v>10142</v>
       </c>
       <c r="J10" t="n">
-        <v>165.865</v>
+        <v>190</v>
       </c>
       <c r="K10" t="n">
-        <v>1781.713</v>
+        <v>1748</v>
       </c>
       <c r="L10" t="n">
-        <v>22651</v>
+        <v>26000</v>
       </c>
       <c r="M10" t="n">
-        <v>300552.3</v>
+        <v>330243.5</v>
       </c>
       <c r="N10" t="n">
-        <v>31.22608</v>
+        <v>33.32211</v>
       </c>
       <c r="O10" t="n">
-        <v>1630</v>
+        <v>1613</v>
       </c>
       <c r="P10" t="n">
-        <v>9225</v>
+        <v>10384</v>
       </c>
       <c r="Q10" t="n">
-        <v>88977</v>
+        <v>109000</v>
       </c>
       <c r="R10" t="n">
-        <v>34463</v>
-      </c>
-      <c r="S10" t="n">
-        <v>256.992</v>
-      </c>
+        <v>36000</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="C11" t="n">
-        <v>46000</v>
+        <v>67000</v>
       </c>
       <c r="D11" t="n">
-        <v>22278</v>
+        <v>21540</v>
       </c>
       <c r="E11" t="n">
-        <v>3069</v>
+        <v>3080</v>
       </c>
       <c r="F11" t="n">
-        <v>80000</v>
+        <v>58000</v>
       </c>
       <c r="G11" t="n">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="H11" t="n">
-        <v>344.059</v>
+        <v>423</v>
       </c>
       <c r="I11" t="n">
-        <v>8543.313</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>10932</v>
+      </c>
+      <c r="J11" t="n">
+        <v>190</v>
+      </c>
       <c r="K11" t="n">
-        <v>1672.68</v>
+        <v>1966</v>
       </c>
       <c r="L11" t="n">
-        <v>72000</v>
+        <v>26000</v>
       </c>
       <c r="M11" t="n">
-        <v>322152.1</v>
+        <v>340000</v>
       </c>
       <c r="N11" t="n">
-        <v>32.77819</v>
+        <v>34.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1615</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
+        <v>1604</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10459</v>
+      </c>
       <c r="Q11" t="n">
-        <v>98000</v>
+        <v>116000</v>
       </c>
       <c r="R11" t="n">
         <v>37000</v>
@@ -1102,179 +1118,120 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12000</v>
+        <v>11379</v>
       </c>
       <c r="C12" t="n">
-        <v>63000</v>
+        <v>55260</v>
       </c>
       <c r="D12" t="n">
-        <v>22018</v>
+        <v>21282</v>
       </c>
       <c r="E12" t="n">
-        <v>3090</v>
+        <v>3490</v>
       </c>
       <c r="F12" t="n">
-        <v>75000</v>
+        <v>58746</v>
       </c>
       <c r="G12" t="n">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="H12" t="n">
-        <v>416</v>
+        <v>334.18</v>
       </c>
       <c r="I12" t="n">
-        <v>10142</v>
+        <v>8541.549999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>190</v>
+        <v>129.87</v>
       </c>
       <c r="K12" t="n">
-        <v>1748</v>
+        <v>1434.98</v>
       </c>
       <c r="L12" t="n">
-        <v>26000</v>
+        <v>21893</v>
       </c>
       <c r="M12" t="n">
-        <v>330243.5</v>
+        <v>342342.5</v>
       </c>
       <c r="N12" t="n">
-        <v>33.32211</v>
+        <v>34.56291</v>
       </c>
       <c r="O12" t="n">
-        <v>1613</v>
+        <v>1595</v>
       </c>
       <c r="P12" t="n">
-        <v>10384</v>
+        <v>8352</v>
       </c>
       <c r="Q12" t="n">
-        <v>109000</v>
+        <v>97011</v>
       </c>
       <c r="R12" t="n">
-        <v>36000</v>
+        <v>41116</v>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12000</v>
+        <v>14996</v>
       </c>
       <c r="C13" t="n">
-        <v>67000</v>
+        <v>83137</v>
       </c>
       <c r="D13" t="n">
-        <v>21540</v>
+        <v>21478</v>
       </c>
       <c r="E13" t="n">
-        <v>3080</v>
+        <v>3662</v>
       </c>
       <c r="F13" t="n">
-        <v>58000</v>
+        <v>48511</v>
       </c>
       <c r="G13" t="n">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="H13" t="n">
-        <v>423</v>
+        <v>586.29</v>
       </c>
       <c r="I13" t="n">
-        <v>10932</v>
+        <v>12342.33</v>
       </c>
       <c r="J13" t="n">
-        <v>190</v>
+        <v>231.84</v>
       </c>
       <c r="K13" t="n">
-        <v>1966</v>
+        <v>2150.35</v>
       </c>
       <c r="L13" t="n">
-        <v>26000</v>
+        <v>22514</v>
       </c>
       <c r="M13" t="n">
-        <v>340000</v>
+        <v>358143.6</v>
       </c>
       <c r="N13" t="n">
-        <v>34.1</v>
+        <v>35.07961</v>
       </c>
       <c r="O13" t="n">
-        <v>1604</v>
+        <v>1585</v>
       </c>
       <c r="P13" t="n">
-        <v>10459</v>
+        <v>12756</v>
       </c>
       <c r="Q13" t="n">
-        <v>116000</v>
+        <v>123418</v>
       </c>
       <c r="R13" t="n">
-        <v>37000</v>
+        <v>42126</v>
       </c>
       <c r="S13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11379</v>
-      </c>
-      <c r="C14" t="n">
-        <v>55260</v>
-      </c>
-      <c r="D14" t="n">
-        <v>21282</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3490</v>
-      </c>
-      <c r="F14" t="n">
-        <v>58746</v>
-      </c>
-      <c r="G14" t="n">
-        <v>343</v>
-      </c>
-      <c r="H14" t="n">
-        <v>334.18</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8541.549999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>129.87</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1434.98</v>
-      </c>
-      <c r="L14" t="n">
-        <v>21893</v>
-      </c>
-      <c r="M14" t="n">
-        <v>342342.5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>34.56291</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1595</v>
-      </c>
-      <c r="P14" t="n">
-        <v>8352</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>97011</v>
-      </c>
-      <c r="R14" t="n">
-        <v>41116</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
